--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Рандомный спавн по таймеру</t>
   </si>
@@ -48,6 +48,36 @@
   </si>
   <si>
     <t>Улучшить логику движения, для уменьшения колебаний</t>
+  </si>
+  <si>
+    <t>Pred</t>
+  </si>
+  <si>
+    <t>Herbivore</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>hunger</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>vision</t>
+  </si>
+  <si>
+    <t>nutrition</t>
+  </si>
+  <si>
+    <t>REproduction</t>
   </si>
 </sst>
 </file>
@@ -60,14 +90,7 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,148 +546,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -992,13 +1015,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="35.7142857142857" style="1" customWidth="1"/>
   </cols>
@@ -1038,6 +1061,108 @@
         <v>6</v>
       </c>
     </row>
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Рандомный спавн по таймеру</t>
   </si>
@@ -50,34 +50,13 @@
     <t>Улучшить логику движения, для уменьшения колебаний</t>
   </si>
   <si>
-    <t>Pred</t>
+    <t>Разобраться с свойством Nutrition value Для Herbivore</t>
   </si>
   <si>
-    <t>Herbivore</t>
+    <t>Реализовать рандомную рисовку фигур при создании объекта</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>hunger</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>vision</t>
-  </si>
-  <si>
-    <t>nutrition</t>
-  </si>
-  <si>
-    <t>REproduction</t>
+    <t>бокс для задания таймера для спавна еды</t>
   </si>
 </sst>
 </file>
@@ -90,8 +69,16 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
-    <font>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -561,139 +548,142 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1015,152 +1005,65 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.7142857142857" style="1" customWidth="1"/>
+    <col min="1" max="1" width="39.7142857142857" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="68" customHeight="1" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="19" customHeight="1" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="24" customHeight="1" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="30" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="30" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
-      <c r="B11" t="s">
+    <row r="8" ht="30" spans="1:1">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F11" t="s">
+    </row>
+    <row r="9" ht="30" spans="1:1">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>50</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>50</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17">
-        <v>100</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21">
-        <v>100</v>
-      </c>
-      <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
